--- a/Code/Results/Cases/Case_4_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.48562324470827</v>
+        <v>11.21885214680199</v>
       </c>
       <c r="C2">
-        <v>8.579235466265256</v>
+        <v>8.686567973578404</v>
       </c>
       <c r="D2">
-        <v>10.85155521069905</v>
+        <v>14.7667239225993</v>
       </c>
       <c r="E2">
-        <v>10.8866896352984</v>
+        <v>15.86351786790864</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.75219601167562</v>
+        <v>58.36701257356254</v>
       </c>
       <c r="H2">
-        <v>15.72367895496884</v>
+        <v>21.52826387766281</v>
       </c>
       <c r="I2">
-        <v>24.97374298362703</v>
+        <v>32.09379621313019</v>
       </c>
       <c r="J2">
-        <v>5.410670210716829</v>
+        <v>9.272602774495139</v>
       </c>
       <c r="K2">
-        <v>10.85850928346346</v>
+        <v>12.56488108653791</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.49911374850096</v>
+        <v>18.23478337878501</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.69040295483776</v>
+        <v>11.08944375622857</v>
       </c>
       <c r="C3">
-        <v>8.059089948759018</v>
+        <v>8.589577762117903</v>
       </c>
       <c r="D3">
-        <v>10.5126582935916</v>
+        <v>14.74302752984397</v>
       </c>
       <c r="E3">
-        <v>10.64504797176192</v>
+        <v>15.86070817958923</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>50.33013282420198</v>
+        <v>58.11686769038016</v>
       </c>
       <c r="H3">
-        <v>15.54449108835759</v>
+        <v>21.52605082508355</v>
       </c>
       <c r="I3">
-        <v>24.6425539531095</v>
+        <v>32.06681038088814</v>
       </c>
       <c r="J3">
-        <v>5.422565330460192</v>
+        <v>9.288739119551714</v>
       </c>
       <c r="K3">
-        <v>10.12261666199806</v>
+        <v>12.49240571330491</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.08145887402341</v>
+        <v>18.21854061666204</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.17521960830447</v>
+        <v>11.01282307159478</v>
       </c>
       <c r="C4">
-        <v>7.729128619900262</v>
+        <v>8.532151109116864</v>
       </c>
       <c r="D4">
-        <v>10.30649544403297</v>
+        <v>14.73140451495517</v>
       </c>
       <c r="E4">
-        <v>10.50087070275737</v>
+        <v>15.86175528543909</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.47259916111788</v>
+        <v>57.97366579933315</v>
       </c>
       <c r="H4">
-        <v>15.44179145480702</v>
+        <v>21.52761520940386</v>
       </c>
       <c r="I4">
-        <v>24.45067828693222</v>
+        <v>32.05471715950679</v>
       </c>
       <c r="J4">
-        <v>5.431662437633664</v>
+        <v>9.299493341223537</v>
       </c>
       <c r="K4">
-        <v>9.646443303278</v>
+        <v>12.45116407187271</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.82630063615428</v>
+        <v>18.21230440263233</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.95844257948408</v>
+        <v>10.9823534881586</v>
       </c>
       <c r="C5">
-        <v>7.592108743645916</v>
+        <v>8.509311558298387</v>
       </c>
       <c r="D5">
-        <v>10.22305867063958</v>
+        <v>14.72740706274803</v>
       </c>
       <c r="E5">
-        <v>10.44320732324684</v>
+        <v>15.8628799333422</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>49.12730284673703</v>
+        <v>57.91795368835001</v>
       </c>
       <c r="H5">
-        <v>15.4017432842656</v>
+        <v>21.5289880277403</v>
       </c>
       <c r="I5">
-        <v>24.37531948747955</v>
+        <v>32.05091602523354</v>
       </c>
       <c r="J5">
-        <v>5.435811181776228</v>
+        <v>9.304088931241854</v>
       </c>
       <c r="K5">
-        <v>9.446222553362214</v>
+        <v>12.43519324518289</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.7227763390656</v>
+        <v>18.21070574239086</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.922032127612672</v>
+        <v>10.97734073203774</v>
       </c>
       <c r="C6">
-        <v>7.569205883883651</v>
+        <v>8.505553814540717</v>
       </c>
       <c r="D6">
-        <v>10.20924169183802</v>
+        <v>14.72678800310026</v>
       </c>
       <c r="E6">
-        <v>10.43369923785783</v>
+        <v>15.86310885275589</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>49.07022446522338</v>
+        <v>57.9088632728887</v>
       </c>
       <c r="H6">
-        <v>15.3952010424248</v>
+        <v>21.52926039718046</v>
       </c>
       <c r="I6">
-        <v>24.3629756433993</v>
+        <v>32.05035294429135</v>
       </c>
       <c r="J6">
-        <v>5.436526483166107</v>
+        <v>9.304864908821211</v>
       </c>
       <c r="K6">
-        <v>9.412601416444193</v>
+        <v>12.43259220593533</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.70561771918416</v>
+        <v>18.21049729482783</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.17232384276481</v>
+        <v>11.01240904280469</v>
       </c>
       <c r="C7">
-        <v>7.727290917489879</v>
+        <v>8.531840774593849</v>
       </c>
       <c r="D7">
-        <v>10.3053677260378</v>
+        <v>14.73134760798726</v>
       </c>
       <c r="E7">
-        <v>10.50008857357581</v>
+        <v>15.86176762601152</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.46792524062874</v>
+        <v>57.9729037024578</v>
       </c>
       <c r="H7">
-        <v>15.44124410382161</v>
+        <v>21.52763074634323</v>
       </c>
       <c r="I7">
-        <v>24.44965057764729</v>
+        <v>32.05466133176841</v>
       </c>
       <c r="J7">
-        <v>5.431716613094595</v>
+        <v>9.299554455479749</v>
       </c>
       <c r="K7">
-        <v>9.643768136952302</v>
+        <v>12.45094528067074</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.82490244838601</v>
+        <v>18.21227902232895</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.2169759547628</v>
+        <v>11.17366828072594</v>
       </c>
       <c r="C8">
-        <v>8.402140798283686</v>
+        <v>8.652701568022952</v>
       </c>
       <c r="D8">
-        <v>10.73435872188882</v>
+        <v>14.75794799145397</v>
       </c>
       <c r="E8">
-        <v>10.80252317753108</v>
+        <v>15.86197429030758</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>51.25876005112081</v>
+        <v>58.2786265666921</v>
       </c>
       <c r="H8">
-        <v>15.66035237742465</v>
+        <v>21.52689432407542</v>
       </c>
       <c r="I8">
-        <v>24.85713566245331</v>
+        <v>32.08356344178465</v>
       </c>
       <c r="J8">
-        <v>5.414393629688441</v>
+        <v>9.277991095825717</v>
       </c>
       <c r="K8">
-        <v>10.60978758329147</v>
+        <v>12.53922533312701</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.35491586106728</v>
+        <v>18.22840923473713</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.05516397466168</v>
+        <v>11.5105460084744</v>
       </c>
       <c r="C9">
-        <v>9.667474946969628</v>
+        <v>8.905301536562151</v>
       </c>
       <c r="D9">
-        <v>11.58715078807543</v>
+        <v>14.83317459888256</v>
       </c>
       <c r="E9">
-        <v>11.42733247642322</v>
+        <v>15.8843288619208</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>54.88543413642599</v>
+        <v>58.95903612835755</v>
       </c>
       <c r="H9">
-        <v>16.14982580156635</v>
+        <v>21.54862649306337</v>
       </c>
       <c r="I9">
-        <v>25.74962101523294</v>
+        <v>32.17567880608701</v>
       </c>
       <c r="J9">
-        <v>5.395100771559405</v>
+        <v>9.242407739034284</v>
       </c>
       <c r="K9">
-        <v>12.31391437295065</v>
+        <v>12.73742732394209</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.39927043932808</v>
+        <v>18.28953676508974</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.28208179625697</v>
+        <v>11.76807734509981</v>
       </c>
       <c r="C10">
-        <v>10.60641745588032</v>
+        <v>9.098625853743021</v>
       </c>
       <c r="D10">
-        <v>12.2164975306862</v>
+        <v>14.90225828687454</v>
       </c>
       <c r="E10">
-        <v>11.90391300434712</v>
+        <v>15.91405428080753</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>57.60999007338219</v>
+        <v>59.50598403543066</v>
       </c>
       <c r="H10">
-        <v>16.54828732809934</v>
+        <v>21.57868760947462</v>
       </c>
       <c r="I10">
-        <v>26.46559860705616</v>
+        <v>32.26482959508747</v>
       </c>
       <c r="J10">
-        <v>5.390535284784074</v>
+        <v>9.220331935495272</v>
       </c>
       <c r="K10">
-        <v>13.45423096709522</v>
+        <v>12.89722441947086</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.16371531626178</v>
+        <v>18.35218696394463</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.81448920416397</v>
+        <v>11.88685799676932</v>
       </c>
       <c r="C11">
-        <v>11.01644533812741</v>
+        <v>9.1878689700085</v>
       </c>
       <c r="D11">
-        <v>12.50275204744165</v>
+        <v>14.93662224776484</v>
       </c>
       <c r="E11">
-        <v>12.12423877024006</v>
+        <v>15.93044202220468</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.86116555157742</v>
+        <v>59.76447746000818</v>
       </c>
       <c r="H11">
-        <v>16.73853807555321</v>
+        <v>21.59541117084907</v>
       </c>
       <c r="I11">
-        <v>26.80517575728661</v>
+        <v>32.310010150624</v>
       </c>
       <c r="J11">
-        <v>5.390702973377335</v>
+        <v>9.211168309082646</v>
       </c>
       <c r="K11">
-        <v>13.94976491129952</v>
+        <v>12.97273967259518</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.50994856058635</v>
+        <v>18.38447620876891</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.01249490126245</v>
+        <v>11.93202502610024</v>
       </c>
       <c r="C12">
-        <v>11.16933057675057</v>
+        <v>9.221817365438358</v>
       </c>
       <c r="D12">
-        <v>12.61110587103496</v>
+        <v>14.95005107366441</v>
       </c>
       <c r="E12">
-        <v>12.20816143860558</v>
+        <v>15.93705709762867</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.33659387521443</v>
+        <v>59.86370432606627</v>
       </c>
       <c r="H12">
-        <v>16.81192192770352</v>
+        <v>21.60218071374457</v>
       </c>
       <c r="I12">
-        <v>26.93582996608642</v>
+        <v>32.32777951293585</v>
       </c>
       <c r="J12">
-        <v>5.391103535096947</v>
+        <v>9.207824334477714</v>
       </c>
       <c r="K12">
-        <v>14.13416662960747</v>
+        <v>13.00171817150729</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.64078694552801</v>
+        <v>18.39724177353927</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.97000962204239</v>
+        <v>11.92228990373183</v>
       </c>
       <c r="C13">
-        <v>11.13650869202519</v>
+        <v>9.214499643534955</v>
       </c>
       <c r="D13">
-        <v>12.58777238417561</v>
+        <v>14.9471405452031</v>
       </c>
       <c r="E13">
-        <v>12.19006557672139</v>
+        <v>15.93561426081444</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>59.23412942895052</v>
+        <v>59.84227524982953</v>
       </c>
       <c r="H13">
-        <v>16.79605699433607</v>
+        <v>21.60070337942437</v>
       </c>
       <c r="I13">
-        <v>26.90759827316488</v>
+        <v>32.32392326883531</v>
       </c>
       <c r="J13">
-        <v>5.391002036201948</v>
+        <v>9.208538915637895</v>
       </c>
       <c r="K13">
-        <v>14.09459528182257</v>
+        <v>12.9954605006598</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.61262135182612</v>
+        <v>18.39446864945039</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.8308509503953</v>
+        <v>11.89057042624893</v>
       </c>
       <c r="C14">
-        <v>11.02907059544224</v>
+        <v>9.190659026437343</v>
       </c>
       <c r="D14">
-        <v>12.51166744646292</v>
+        <v>14.93771874818942</v>
       </c>
       <c r="E14">
-        <v>12.13113338497936</v>
+        <v>15.93097806001422</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>58.90024666948251</v>
+        <v>59.77261434204144</v>
       </c>
       <c r="H14">
-        <v>16.74454826346158</v>
+        <v>21.59595936392841</v>
       </c>
       <c r="I14">
-        <v>26.81588297367594</v>
+        <v>32.31145883881024</v>
       </c>
       <c r="J14">
-        <v>5.390729086669827</v>
+        <v>9.210890672781796</v>
       </c>
       <c r="K14">
-        <v>13.965000268095</v>
+        <v>12.97511622146351</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.52071842281681</v>
+        <v>18.38551569032996</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.74514560301457</v>
+        <v>11.87116435259194</v>
       </c>
       <c r="C15">
-        <v>10.96295369101635</v>
+        <v>9.176075040447712</v>
       </c>
       <c r="D15">
-        <v>12.4650442617458</v>
+        <v>14.93200159230131</v>
       </c>
       <c r="E15">
-        <v>12.09509917284985</v>
+        <v>15.92819148359225</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>58.69594611254693</v>
+        <v>59.73011809246938</v>
       </c>
       <c r="H15">
-        <v>16.71317368237944</v>
+        <v>21.59311033277797</v>
       </c>
       <c r="I15">
-        <v>26.75997564419991</v>
+        <v>32.30390987938536</v>
       </c>
       <c r="J15">
-        <v>5.390606236231979</v>
+        <v>9.212347604680764</v>
       </c>
       <c r="K15">
-        <v>13.88519962678865</v>
+        <v>12.96270387125709</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.46438842171183</v>
+        <v>18.38010164534134</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.24677794685822</v>
+        <v>11.76034350695143</v>
       </c>
       <c r="C16">
-        <v>10.57928328542805</v>
+        <v>9.092816934085114</v>
       </c>
       <c r="D16">
-        <v>12.19778568841921</v>
+        <v>14.90007108994624</v>
       </c>
       <c r="E16">
-        <v>11.88958352370992</v>
+        <v>15.91304074459513</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>57.52845342972138</v>
+        <v>59.48928140204438</v>
       </c>
       <c r="H16">
-        <v>16.53603881853437</v>
+        <v>21.57765589285172</v>
       </c>
       <c r="I16">
-        <v>26.44369130671794</v>
+        <v>32.26196962950193</v>
       </c>
       <c r="J16">
-        <v>5.39057068901224</v>
+        <v>9.220948459682196</v>
       </c>
       <c r="K16">
-        <v>13.42138732019902</v>
+        <v>12.89234413711208</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.14105255380377</v>
+        <v>18.35015248880963</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.93452165798714</v>
+        <v>11.69274214375854</v>
       </c>
       <c r="C17">
-        <v>10.33958447331301</v>
+        <v>9.042050065302364</v>
       </c>
       <c r="D17">
-        <v>12.0337890898167</v>
+        <v>14.88123068367749</v>
       </c>
       <c r="E17">
-        <v>11.76439499926829</v>
+        <v>15.90447839193422</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>56.81518966655172</v>
+        <v>59.3439803530733</v>
       </c>
       <c r="H17">
-        <v>16.4297068543211</v>
+        <v>21.56895480046322</v>
       </c>
       <c r="I17">
-        <v>26.25326103095856</v>
+        <v>32.23742219326751</v>
       </c>
       <c r="J17">
-        <v>5.39113359343018</v>
+        <v>9.226449684380917</v>
       </c>
       <c r="K17">
-        <v>13.13097283734112</v>
+        <v>12.84988727558931</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.94226335041934</v>
+        <v>18.33274570667766</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.75249289830194</v>
+        <v>11.65401567609672</v>
       </c>
       <c r="C18">
-        <v>10.20010120114118</v>
+        <v>9.012974525092348</v>
       </c>
       <c r="D18">
-        <v>11.93946042832252</v>
+        <v>14.87067108761232</v>
       </c>
       <c r="E18">
-        <v>11.69272240809894</v>
+        <v>15.89982344800367</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>56.40604635838746</v>
+        <v>59.26132179580005</v>
       </c>
       <c r="H18">
-        <v>16.36939049560105</v>
+        <v>21.56423723056723</v>
       </c>
       <c r="I18">
-        <v>26.1450320647416</v>
+        <v>32.22373883924698</v>
       </c>
       <c r="J18">
-        <v>5.391667710385202</v>
+        <v>9.229696573459815</v>
       </c>
       <c r="K18">
-        <v>12.96174443130534</v>
+        <v>12.82573435226155</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.82778442682703</v>
+        <v>18.32309088976094</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.69044146711449</v>
+        <v>11.64093179396634</v>
       </c>
       <c r="C19">
-        <v>10.1525950647245</v>
+        <v>9.00315238443998</v>
       </c>
       <c r="D19">
-        <v>11.90752341628899</v>
+        <v>14.86714353704467</v>
       </c>
       <c r="E19">
-        <v>11.66851306434625</v>
+        <v>15.89829379432351</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>56.26771022408188</v>
+        <v>59.23349366917593</v>
       </c>
       <c r="H19">
-        <v>16.34911182340428</v>
+        <v>21.56268929379875</v>
       </c>
       <c r="I19">
-        <v>26.10860917903298</v>
+        <v>32.21918085204362</v>
       </c>
       <c r="J19">
-        <v>5.391884263146611</v>
+        <v>9.230810131632355</v>
       </c>
       <c r="K19">
-        <v>12.90406789234577</v>
+        <v>12.81760317030674</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.78900164296471</v>
+        <v>18.31988345818839</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.96801242179439</v>
+        <v>11.69992261426439</v>
       </c>
       <c r="C20">
-        <v>10.36526743560577</v>
+        <v>9.047441667187408</v>
       </c>
       <c r="D20">
-        <v>12.05124735905814</v>
+        <v>14.88320766334133</v>
       </c>
       <c r="E20">
-        <v>11.77768726459049</v>
+        <v>15.90536195411543</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.89100380955956</v>
+        <v>59.3593535885355</v>
       </c>
       <c r="H20">
-        <v>16.44093850003355</v>
+        <v>21.56985134743124</v>
       </c>
       <c r="I20">
-        <v>26.27339749095756</v>
+        <v>32.23999025014788</v>
       </c>
       <c r="J20">
-        <v>5.391051800917113</v>
+        <v>9.22585550934056</v>
       </c>
       <c r="K20">
-        <v>13.16211394806129</v>
+        <v>12.85437940019163</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.96343980977482</v>
+        <v>18.33456177518849</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.87182229682266</v>
+        <v>11.89988249055835</v>
       </c>
       <c r="C21">
-        <v>11.0606917992169</v>
+        <v>9.197657675466521</v>
       </c>
       <c r="D21">
-        <v>12.53402275955272</v>
+        <v>14.94047492399</v>
       </c>
       <c r="E21">
-        <v>12.14842999245408</v>
+        <v>15.93232873661383</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.99827191055996</v>
+        <v>59.79303946746447</v>
       </c>
       <c r="H21">
-        <v>16.75964085531925</v>
+        <v>21.59734095942191</v>
       </c>
       <c r="I21">
-        <v>26.84276538157361</v>
+        <v>32.31510205923001</v>
       </c>
       <c r="J21">
-        <v>5.39079999121829</v>
+        <v>9.210196484789931</v>
       </c>
       <c r="K21">
-        <v>14.00315281141523</v>
+        <v>12.98108163798219</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.54772028148719</v>
+        <v>18.38813083670576</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.44154747944992</v>
+        <v>12.03163873195546</v>
       </c>
       <c r="C22">
-        <v>11.50134199233205</v>
+        <v>9.296714923758053</v>
       </c>
       <c r="D22">
-        <v>12.84927710441575</v>
+        <v>14.98032343846358</v>
       </c>
       <c r="E22">
-        <v>12.39358664844614</v>
+        <v>15.95233787749979</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.38504131868384</v>
+        <v>60.08426913050467</v>
       </c>
       <c r="H22">
-        <v>16.97576788452545</v>
+        <v>21.61785140978197</v>
       </c>
       <c r="I22">
-        <v>27.22694788748564</v>
+        <v>32.36803909921986</v>
       </c>
       <c r="J22">
-        <v>5.392607550376124</v>
+        <v>9.200697239297607</v>
       </c>
       <c r="K22">
-        <v>14.53394613574577</v>
+        <v>13.06610714364732</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.92798041803331</v>
+        <v>18.4262756413708</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.13936018209201</v>
+        <v>11.96123526122855</v>
       </c>
       <c r="C23">
-        <v>11.26739822008507</v>
+        <v>9.243776239650382</v>
       </c>
       <c r="D23">
-        <v>12.68105347230137</v>
+        <v>14.9588362803042</v>
       </c>
       <c r="E23">
-        <v>12.26248412979514</v>
+        <v>15.9414413790735</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.64402613658569</v>
+        <v>59.9281391671209</v>
       </c>
       <c r="H23">
-        <v>16.85968270797179</v>
+        <v>21.60667241511943</v>
       </c>
       <c r="I23">
-        <v>27.02077316714357</v>
+        <v>32.33943528296598</v>
       </c>
       <c r="J23">
-        <v>5.391457344760279</v>
+        <v>9.205700018818114</v>
       </c>
       <c r="K23">
-        <v>14.25234697242979</v>
+        <v>13.02053235710536</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.7251880297761</v>
+        <v>18.40563257473384</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.95287906776389</v>
+        <v>11.69667588867921</v>
       </c>
       <c r="C24">
-        <v>10.35366139816386</v>
+        <v>9.045003775680945</v>
       </c>
       <c r="D24">
-        <v>12.04335461203068</v>
+        <v>14.88231302309567</v>
       </c>
       <c r="E24">
-        <v>11.77167689572083</v>
+        <v>15.90496166170436</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.85672536013161</v>
+        <v>59.35240061306639</v>
       </c>
       <c r="H24">
-        <v>16.43585813703758</v>
+        <v>21.56944513117596</v>
       </c>
       <c r="I24">
-        <v>26.26428990293936</v>
+        <v>32.23882789393967</v>
       </c>
       <c r="J24">
-        <v>5.391088124732714</v>
+        <v>9.226123873692888</v>
       </c>
       <c r="K24">
-        <v>13.14804211438211</v>
+        <v>12.85234771115952</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.95386652729278</v>
+        <v>18.33373963186823</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.57994185281451</v>
+        <v>11.41746291798102</v>
       </c>
       <c r="C25">
-        <v>9.313604152415161</v>
+        <v>8.835477300056414</v>
       </c>
       <c r="D25">
-        <v>11.35568988881166</v>
+        <v>14.8103778025958</v>
       </c>
       <c r="E25">
-        <v>11.25510789472292</v>
+        <v>15.87593843228408</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>53.89317810150853</v>
+        <v>58.76652866119133</v>
       </c>
       <c r="H25">
-        <v>16.01076397836177</v>
+        <v>21.54026867046421</v>
       </c>
       <c r="I25">
-        <v>25.49784149740387</v>
+        <v>32.14697640620047</v>
       </c>
       <c r="J25">
-        <v>5.398683057294705</v>
+        <v>9.251318374247074</v>
       </c>
       <c r="K25">
-        <v>11.87284764729311</v>
+        <v>12.68123357233142</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.11687579938683</v>
+        <v>18.2698649116665</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.21885214680199</v>
+        <v>11.48562324470824</v>
       </c>
       <c r="C2">
-        <v>8.686567973578404</v>
+        <v>8.579235466265219</v>
       </c>
       <c r="D2">
-        <v>14.7667239225993</v>
+        <v>10.85155521069919</v>
       </c>
       <c r="E2">
-        <v>15.86351786790864</v>
+        <v>10.88668963529852</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>58.36701257356254</v>
+        <v>51.75219601167584</v>
       </c>
       <c r="H2">
-        <v>21.52826387766281</v>
+        <v>15.72367895496883</v>
       </c>
       <c r="I2">
-        <v>32.09379621313019</v>
+        <v>24.9737429836271</v>
       </c>
       <c r="J2">
-        <v>9.272602774495139</v>
+        <v>5.410670210716892</v>
       </c>
       <c r="K2">
-        <v>12.56488108653791</v>
+        <v>10.85850928346341</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.23478337878501</v>
+        <v>12.49911374850101</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.08944375622857</v>
+        <v>10.69040295483779</v>
       </c>
       <c r="C3">
-        <v>8.589577762117903</v>
+        <v>8.059089948758992</v>
       </c>
       <c r="D3">
-        <v>14.74302752984397</v>
+        <v>10.51265829359177</v>
       </c>
       <c r="E3">
-        <v>15.86070817958923</v>
+        <v>10.64504797176198</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.11686769038016</v>
+        <v>50.3301328242021</v>
       </c>
       <c r="H3">
-        <v>21.52605082508355</v>
+        <v>15.54449108835759</v>
       </c>
       <c r="I3">
-        <v>32.06681038088814</v>
+        <v>24.64255395310953</v>
       </c>
       <c r="J3">
-        <v>9.288739119551714</v>
+        <v>5.422565330460051</v>
       </c>
       <c r="K3">
-        <v>12.49240571330491</v>
+        <v>10.12261666199811</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.21854061666204</v>
+        <v>12.08145887402342</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.01282307159478</v>
+        <v>10.1752196083044</v>
       </c>
       <c r="C4">
-        <v>8.532151109116864</v>
+        <v>7.729128619900306</v>
       </c>
       <c r="D4">
-        <v>14.73140451495517</v>
+        <v>10.30649544403298</v>
       </c>
       <c r="E4">
-        <v>15.86175528543909</v>
+        <v>10.50087070275742</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.97366579933315</v>
+        <v>49.47259916111803</v>
       </c>
       <c r="H4">
-        <v>21.52761520940386</v>
+        <v>15.4417914548071</v>
       </c>
       <c r="I4">
-        <v>32.05471715950679</v>
+        <v>24.45067828693225</v>
       </c>
       <c r="J4">
-        <v>9.299493341223537</v>
+        <v>5.431662437633697</v>
       </c>
       <c r="K4">
-        <v>12.45116407187271</v>
+        <v>9.646443303277914</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.21230440263233</v>
+        <v>11.82630063615434</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.9823534881586</v>
+        <v>9.95844257948413</v>
       </c>
       <c r="C5">
-        <v>8.509311558298387</v>
+        <v>7.592108743645854</v>
       </c>
       <c r="D5">
-        <v>14.72740706274803</v>
+        <v>10.22305867063955</v>
       </c>
       <c r="E5">
-        <v>15.8628799333422</v>
+        <v>10.44320732324686</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>57.91795368835001</v>
+        <v>49.12730284673682</v>
       </c>
       <c r="H5">
-        <v>21.5289880277403</v>
+        <v>15.40174328426547</v>
       </c>
       <c r="I5">
-        <v>32.05091602523354</v>
+        <v>24.37531948747945</v>
       </c>
       <c r="J5">
-        <v>9.304088931241854</v>
+        <v>5.435811181776281</v>
       </c>
       <c r="K5">
-        <v>12.43519324518289</v>
+        <v>9.446222553362286</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.21070574239086</v>
+        <v>11.72277633906553</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.97734073203774</v>
+        <v>9.922032127612614</v>
       </c>
       <c r="C6">
-        <v>8.505553814540717</v>
+        <v>7.569205883883651</v>
       </c>
       <c r="D6">
-        <v>14.72678800310026</v>
+        <v>10.20924169183805</v>
       </c>
       <c r="E6">
-        <v>15.86310885275589</v>
+        <v>10.43369923785773</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>57.9088632728887</v>
+        <v>49.0702244652237</v>
       </c>
       <c r="H6">
-        <v>21.52926039718046</v>
+        <v>15.39520104242485</v>
       </c>
       <c r="I6">
-        <v>32.05035294429135</v>
+        <v>24.36297564339947</v>
       </c>
       <c r="J6">
-        <v>9.304864908821211</v>
+        <v>5.436526483166046</v>
       </c>
       <c r="K6">
-        <v>12.43259220593533</v>
+        <v>9.412601416444144</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.21049729482783</v>
+        <v>11.70561771918418</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.01240904280469</v>
+        <v>10.17232384276483</v>
       </c>
       <c r="C7">
-        <v>8.531840774593849</v>
+        <v>7.727290917489904</v>
       </c>
       <c r="D7">
-        <v>14.73134760798726</v>
+        <v>10.30536772603783</v>
       </c>
       <c r="E7">
-        <v>15.86176762601152</v>
+        <v>10.50008857357579</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.9729037024578</v>
+        <v>49.46792524062882</v>
       </c>
       <c r="H7">
-        <v>21.52763074634323</v>
+        <v>15.44124410382158</v>
       </c>
       <c r="I7">
-        <v>32.05466133176841</v>
+        <v>24.44965057764728</v>
       </c>
       <c r="J7">
-        <v>9.299554455479749</v>
+        <v>5.431716613094597</v>
       </c>
       <c r="K7">
-        <v>12.45094528067074</v>
+        <v>9.643768136952325</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.21227902232895</v>
+        <v>11.82490244838598</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.17366828072594</v>
+        <v>11.21697595476276</v>
       </c>
       <c r="C8">
-        <v>8.652701568022952</v>
+        <v>8.402140798283636</v>
       </c>
       <c r="D8">
-        <v>14.75794799145397</v>
+        <v>10.73435872188895</v>
       </c>
       <c r="E8">
-        <v>15.86197429030758</v>
+        <v>10.80252317753113</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>58.2786265666921</v>
+        <v>51.25876005112129</v>
       </c>
       <c r="H8">
-        <v>21.52689432407542</v>
+        <v>15.66035237742474</v>
       </c>
       <c r="I8">
-        <v>32.08356344178465</v>
+        <v>24.85713566245354</v>
       </c>
       <c r="J8">
-        <v>9.277991095825717</v>
+        <v>5.414393629688441</v>
       </c>
       <c r="K8">
-        <v>12.53922533312701</v>
+        <v>10.60978758329138</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.22840923473713</v>
+        <v>12.35491586106735</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.5105460084744</v>
+        <v>13.05516397466171</v>
       </c>
       <c r="C9">
-        <v>8.905301536562151</v>
+        <v>9.667474946969699</v>
       </c>
       <c r="D9">
-        <v>14.83317459888256</v>
+        <v>11.58715078807547</v>
       </c>
       <c r="E9">
-        <v>15.8843288619208</v>
+        <v>11.42733247642331</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>58.95903612835755</v>
+        <v>54.88543413642574</v>
       </c>
       <c r="H9">
-        <v>21.54862649306337</v>
+        <v>16.14982580156624</v>
       </c>
       <c r="I9">
-        <v>32.17567880608701</v>
+        <v>25.74962101523284</v>
       </c>
       <c r="J9">
-        <v>9.242407739034284</v>
+        <v>5.395100771559432</v>
       </c>
       <c r="K9">
-        <v>12.73742732394209</v>
+        <v>12.31391437295072</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.28953676508974</v>
+        <v>13.39927043932806</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.76807734509981</v>
+        <v>14.28208179625695</v>
       </c>
       <c r="C10">
-        <v>9.098625853743021</v>
+        <v>10.60641745588025</v>
       </c>
       <c r="D10">
-        <v>14.90225828687454</v>
+        <v>12.21649753068617</v>
       </c>
       <c r="E10">
-        <v>15.91405428080753</v>
+        <v>11.90391300434713</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>59.50598403543066</v>
+        <v>57.60999007338233</v>
       </c>
       <c r="H10">
-        <v>21.57868760947462</v>
+        <v>16.54828732809935</v>
       </c>
       <c r="I10">
-        <v>32.26482959508747</v>
+        <v>26.46559860705625</v>
       </c>
       <c r="J10">
-        <v>9.220331935495272</v>
+        <v>5.390535284784074</v>
       </c>
       <c r="K10">
-        <v>12.89722441947086</v>
+        <v>13.45423096709516</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.35218696394463</v>
+        <v>14.16371531626179</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.88685799676932</v>
+        <v>14.81448920416405</v>
       </c>
       <c r="C11">
-        <v>9.1878689700085</v>
+        <v>11.01644533812731</v>
       </c>
       <c r="D11">
-        <v>14.93662224776484</v>
+        <v>12.50275204744168</v>
       </c>
       <c r="E11">
-        <v>15.93044202220468</v>
+        <v>12.12423877024014</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>59.76447746000818</v>
+        <v>58.86116555157754</v>
       </c>
       <c r="H11">
-        <v>21.59541117084907</v>
+        <v>16.73853807555322</v>
       </c>
       <c r="I11">
-        <v>32.310010150624</v>
+        <v>26.80517575728663</v>
       </c>
       <c r="J11">
-        <v>9.211168309082646</v>
+        <v>5.390702973377382</v>
       </c>
       <c r="K11">
-        <v>12.97273967259518</v>
+        <v>13.9497649112995</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.38447620876891</v>
+        <v>14.50994856058636</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.93202502610024</v>
+        <v>15.01249490126249</v>
       </c>
       <c r="C12">
-        <v>9.221817365438358</v>
+        <v>11.16933057675055</v>
       </c>
       <c r="D12">
-        <v>14.95005107366441</v>
+        <v>12.61110587103495</v>
       </c>
       <c r="E12">
-        <v>15.93705709762867</v>
+        <v>12.20816143860561</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.86370432606627</v>
+        <v>59.33659387521445</v>
       </c>
       <c r="H12">
-        <v>21.60218071374457</v>
+        <v>16.81192192770359</v>
       </c>
       <c r="I12">
-        <v>32.32777951293585</v>
+        <v>26.93582996608645</v>
       </c>
       <c r="J12">
-        <v>9.207824334477714</v>
+        <v>5.391103535097034</v>
       </c>
       <c r="K12">
-        <v>13.00171817150729</v>
+        <v>14.13416662960749</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.39724177353927</v>
+        <v>14.64078694552801</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.92228990373183</v>
+        <v>14.97000962204238</v>
       </c>
       <c r="C13">
-        <v>9.214499643534955</v>
+        <v>11.13650869202529</v>
       </c>
       <c r="D13">
-        <v>14.9471405452031</v>
+        <v>12.5877723841756</v>
       </c>
       <c r="E13">
-        <v>15.93561426081444</v>
+        <v>12.19006557672137</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>59.84227524982953</v>
+        <v>59.2341294289505</v>
       </c>
       <c r="H13">
-        <v>21.60070337942437</v>
+        <v>16.79605699433612</v>
       </c>
       <c r="I13">
-        <v>32.32392326883531</v>
+        <v>26.90759827316498</v>
       </c>
       <c r="J13">
-        <v>9.208538915637895</v>
+        <v>5.39100203620192</v>
       </c>
       <c r="K13">
-        <v>12.9954605006598</v>
+        <v>14.0945952818226</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.39446864945039</v>
+        <v>14.6126213518261</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.89057042624893</v>
+        <v>14.8308509503953</v>
       </c>
       <c r="C14">
-        <v>9.190659026437343</v>
+        <v>11.02907059544238</v>
       </c>
       <c r="D14">
-        <v>14.93771874818942</v>
+        <v>12.51166744646291</v>
       </c>
       <c r="E14">
-        <v>15.93097806001422</v>
+        <v>12.13113338497943</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>59.77261434204144</v>
+        <v>58.90024666948251</v>
       </c>
       <c r="H14">
-        <v>21.59595936392841</v>
+        <v>16.7445482634616</v>
       </c>
       <c r="I14">
-        <v>32.31145883881024</v>
+        <v>26.81588297367592</v>
       </c>
       <c r="J14">
-        <v>9.210890672781796</v>
+        <v>5.390729086669864</v>
       </c>
       <c r="K14">
-        <v>12.97511622146351</v>
+        <v>13.96500026809509</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.38551569032996</v>
+        <v>14.52071842281681</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.87116435259194</v>
+        <v>14.74514560301451</v>
       </c>
       <c r="C15">
-        <v>9.176075040447712</v>
+        <v>10.96295369101627</v>
       </c>
       <c r="D15">
-        <v>14.93200159230131</v>
+        <v>12.46504426174576</v>
       </c>
       <c r="E15">
-        <v>15.92819148359225</v>
+        <v>12.09509917284982</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>59.73011809246938</v>
+        <v>58.69594611254703</v>
       </c>
       <c r="H15">
-        <v>21.59311033277797</v>
+        <v>16.71317368237942</v>
       </c>
       <c r="I15">
-        <v>32.30390987938536</v>
+        <v>26.75997564419994</v>
       </c>
       <c r="J15">
-        <v>9.212347604680764</v>
+        <v>5.390606236232</v>
       </c>
       <c r="K15">
-        <v>12.96270387125709</v>
+        <v>13.88519962678859</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.38010164534134</v>
+        <v>14.46438842171183</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.76034350695143</v>
+        <v>14.24677794685812</v>
       </c>
       <c r="C16">
-        <v>9.092816934085114</v>
+        <v>10.57928328542807</v>
       </c>
       <c r="D16">
-        <v>14.90007108994624</v>
+        <v>12.19778568841919</v>
       </c>
       <c r="E16">
-        <v>15.91304074459513</v>
+        <v>11.88958352370988</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>59.48928140204438</v>
+        <v>57.52845342972167</v>
       </c>
       <c r="H16">
-        <v>21.57765589285172</v>
+        <v>16.53603881853448</v>
       </c>
       <c r="I16">
-        <v>32.26196962950193</v>
+        <v>26.44369130671817</v>
       </c>
       <c r="J16">
-        <v>9.220948459682196</v>
+        <v>5.39057068901221</v>
       </c>
       <c r="K16">
-        <v>12.89234413711208</v>
+        <v>13.42138732019891</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.35015248880963</v>
+        <v>14.14105255380376</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.69274214375854</v>
+        <v>13.93452165798717</v>
       </c>
       <c r="C17">
-        <v>9.042050065302364</v>
+        <v>10.33958447331307</v>
       </c>
       <c r="D17">
-        <v>14.88123068367749</v>
+        <v>12.03378908981682</v>
       </c>
       <c r="E17">
-        <v>15.90447839193422</v>
+        <v>11.7643949992684</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>59.3439803530733</v>
+        <v>56.81518966655143</v>
       </c>
       <c r="H17">
-        <v>21.56895480046322</v>
+        <v>16.42970685432105</v>
       </c>
       <c r="I17">
-        <v>32.23742219326751</v>
+        <v>26.25326103095837</v>
       </c>
       <c r="J17">
-        <v>9.226449684380917</v>
+        <v>5.391133593430257</v>
       </c>
       <c r="K17">
-        <v>12.84988727558931</v>
+        <v>13.13097283734118</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.33274570667766</v>
+        <v>13.94226335041935</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.65401567609672</v>
+        <v>13.75249289830189</v>
       </c>
       <c r="C18">
-        <v>9.012974525092348</v>
+        <v>10.20010120114113</v>
       </c>
       <c r="D18">
-        <v>14.87067108761232</v>
+        <v>11.93946042832258</v>
       </c>
       <c r="E18">
-        <v>15.89982344800367</v>
+        <v>11.69272240809895</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>59.26132179580005</v>
+        <v>56.40604635838786</v>
       </c>
       <c r="H18">
-        <v>21.56423723056723</v>
+        <v>16.36939049560103</v>
       </c>
       <c r="I18">
-        <v>32.22373883924698</v>
+        <v>26.14503206474176</v>
       </c>
       <c r="J18">
-        <v>9.229696573459815</v>
+        <v>5.391667710385168</v>
       </c>
       <c r="K18">
-        <v>12.82573435226155</v>
+        <v>12.96174443130531</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.32309088976094</v>
+        <v>13.82778442682707</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.64093179396634</v>
+        <v>13.69044146711456</v>
       </c>
       <c r="C19">
-        <v>9.00315238443998</v>
+        <v>10.15259506472444</v>
       </c>
       <c r="D19">
-        <v>14.86714353704467</v>
+        <v>11.907523416289</v>
       </c>
       <c r="E19">
-        <v>15.89829379432351</v>
+        <v>11.66851306434623</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>59.23349366917593</v>
+        <v>56.26771022408196</v>
       </c>
       <c r="H19">
-        <v>21.56268929379875</v>
+        <v>16.34911182340422</v>
       </c>
       <c r="I19">
-        <v>32.21918085204362</v>
+        <v>26.10860917903295</v>
       </c>
       <c r="J19">
-        <v>9.230810131632355</v>
+        <v>5.39188426314667</v>
       </c>
       <c r="K19">
-        <v>12.81760317030674</v>
+        <v>12.90406789234585</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.31988345818839</v>
+        <v>13.78900164296467</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.69992261426439</v>
+        <v>13.96801242179442</v>
       </c>
       <c r="C20">
-        <v>9.047441667187408</v>
+        <v>10.36526743560573</v>
       </c>
       <c r="D20">
-        <v>14.88320766334133</v>
+        <v>12.05124735905817</v>
       </c>
       <c r="E20">
-        <v>15.90536195411543</v>
+        <v>11.77768726459052</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>59.3593535885355</v>
+        <v>56.89100380955963</v>
       </c>
       <c r="H20">
-        <v>21.56985134743124</v>
+        <v>16.44093850003357</v>
       </c>
       <c r="I20">
-        <v>32.23999025014788</v>
+        <v>26.27339749095761</v>
       </c>
       <c r="J20">
-        <v>9.22585550934056</v>
+        <v>5.39105180091717</v>
       </c>
       <c r="K20">
-        <v>12.85437940019163</v>
+        <v>13.16211394806131</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.33456177518849</v>
+        <v>13.96343980977482</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.89988249055835</v>
+        <v>14.87182229682264</v>
       </c>
       <c r="C21">
-        <v>9.197657675466521</v>
+        <v>11.06069179921685</v>
       </c>
       <c r="D21">
-        <v>14.94047492399</v>
+        <v>12.53402275955278</v>
       </c>
       <c r="E21">
-        <v>15.93232873661383</v>
+        <v>12.14842999245411</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>59.79303946746447</v>
+        <v>58.99827191056005</v>
       </c>
       <c r="H21">
-        <v>21.59734095942191</v>
+        <v>16.75964085531925</v>
       </c>
       <c r="I21">
-        <v>32.31510205923001</v>
+        <v>26.84276538157368</v>
       </c>
       <c r="J21">
-        <v>9.210196484789931</v>
+        <v>5.390799991218289</v>
       </c>
       <c r="K21">
-        <v>12.98108163798219</v>
+        <v>14.00315281141523</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.38813083670576</v>
+        <v>14.54772028148719</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.03163873195546</v>
+        <v>15.44154747944985</v>
       </c>
       <c r="C22">
-        <v>9.296714923758053</v>
+        <v>11.50134199233201</v>
       </c>
       <c r="D22">
-        <v>14.98032343846358</v>
+        <v>12.84927710441583</v>
       </c>
       <c r="E22">
-        <v>15.95233787749979</v>
+        <v>12.39358664844614</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.08426913050467</v>
+        <v>60.3850413186839</v>
       </c>
       <c r="H22">
-        <v>21.61785140978197</v>
+        <v>16.97576788452546</v>
       </c>
       <c r="I22">
-        <v>32.36803909921986</v>
+        <v>27.22694788748569</v>
       </c>
       <c r="J22">
-        <v>9.200697239297607</v>
+        <v>5.392607550376077</v>
       </c>
       <c r="K22">
-        <v>13.06610714364732</v>
+        <v>14.5339461357457</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.4262756413708</v>
+        <v>14.92798041803333</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.96123526122855</v>
+        <v>15.13936018209204</v>
       </c>
       <c r="C23">
-        <v>9.243776239650382</v>
+        <v>11.26739822008509</v>
       </c>
       <c r="D23">
-        <v>14.9588362803042</v>
+        <v>12.68105347230137</v>
       </c>
       <c r="E23">
-        <v>15.9414413790735</v>
+        <v>12.26248412979522</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.9281391671209</v>
+        <v>59.64402613658567</v>
       </c>
       <c r="H23">
-        <v>21.60667241511943</v>
+        <v>16.85968270797179</v>
       </c>
       <c r="I23">
-        <v>32.33943528296598</v>
+        <v>27.02077316714353</v>
       </c>
       <c r="J23">
-        <v>9.205700018818114</v>
+        <v>5.391457344760417</v>
       </c>
       <c r="K23">
-        <v>13.02053235710536</v>
+        <v>14.25234697242982</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.40563257473384</v>
+        <v>14.72518802977612</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.69667588867921</v>
+        <v>13.95287906776394</v>
       </c>
       <c r="C24">
-        <v>9.045003775680945</v>
+        <v>10.35366139816376</v>
       </c>
       <c r="D24">
-        <v>14.88231302309567</v>
+        <v>12.04335461203068</v>
       </c>
       <c r="E24">
-        <v>15.90496166170436</v>
+        <v>11.77167689572082</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>59.35240061306639</v>
+        <v>56.85672536013197</v>
       </c>
       <c r="H24">
-        <v>21.56944513117596</v>
+        <v>16.43585813703763</v>
       </c>
       <c r="I24">
-        <v>32.23882789393967</v>
+        <v>26.26428990293949</v>
       </c>
       <c r="J24">
-        <v>9.226123873692888</v>
+        <v>5.391088124732792</v>
       </c>
       <c r="K24">
-        <v>12.85234771115952</v>
+        <v>13.14804211438209</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.33373963186823</v>
+        <v>13.95386652729278</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.41746291798102</v>
+        <v>12.5799418528145</v>
       </c>
       <c r="C25">
-        <v>8.835477300056414</v>
+        <v>9.313604152415106</v>
       </c>
       <c r="D25">
-        <v>14.8103778025958</v>
+        <v>11.35568988881158</v>
       </c>
       <c r="E25">
-        <v>15.87593843228408</v>
+        <v>11.25510789472283</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>58.76652866119133</v>
+        <v>53.89317810150885</v>
       </c>
       <c r="H25">
-        <v>21.54026867046421</v>
+        <v>16.01076397836193</v>
       </c>
       <c r="I25">
-        <v>32.14697640620047</v>
+        <v>25.49784149740408</v>
       </c>
       <c r="J25">
-        <v>9.251318374247074</v>
+        <v>5.398683057294703</v>
       </c>
       <c r="K25">
-        <v>12.68123357233142</v>
+        <v>11.87284764729307</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.2698649116665</v>
+        <v>13.11687579938684</v>
       </c>
       <c r="N25">
         <v>0</v>
